--- a/source_data/simple_4.xlsx
+++ b/source_data/simple_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAE19E6-E0ED-B744-95A9-74BD6E99E51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3402EE4-9B70-7347-9037-6710B4352FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="3800" windowWidth="33260" windowHeight="19480" firstSheet="2" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35040" yWindow="3800" windowWidth="33260" windowHeight="19480" firstSheet="4" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -49,14 +49,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="254">
   <si>
     <t>Epoch</t>
   </si>
   <si>
-    <t>Screening</t>
-  </si>
-  <si>
     <t>Treatment</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Demographics</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
     <t>0..1 Hours</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>Placebo</t>
   </si>
   <si>
-    <t xml:space="preserve">Screening </t>
-  </si>
-  <si>
     <t>Follow-Up</t>
   </si>
   <si>
@@ -663,12 +654,6 @@
     <t>transitionEndRule</t>
   </si>
   <si>
-    <t>Screening encounter</t>
-  </si>
-  <si>
-    <t>Baseline encounter</t>
-  </si>
-  <si>
     <t>First dose</t>
   </si>
   <si>
@@ -693,9 +678,6 @@
     <t>TELEPHONE CALL</t>
   </si>
   <si>
-    <t>IEs passed</t>
-  </si>
-  <si>
     <t>Radomized</t>
   </si>
   <si>
@@ -708,12 +690,6 @@
     <t>E3</t>
   </si>
   <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
     <t>Encounter xref</t>
   </si>
   <si>
@@ -726,9 +702,6 @@
     <t>Epoch/Arms</t>
   </si>
   <si>
-    <t>Subject identified</t>
-  </si>
-  <si>
     <t>studyElementName</t>
   </si>
   <si>
@@ -741,61 +714,22 @@
     <t>EL2</t>
   </si>
   <si>
-    <t>EL3</t>
-  </si>
-  <si>
-    <t>EL4</t>
-  </si>
-  <si>
-    <t>EL5</t>
-  </si>
-  <si>
     <t>Follow Up</t>
   </si>
   <si>
     <t>Follow Up Element</t>
   </si>
   <si>
-    <t>Screening Element</t>
-  </si>
-  <si>
-    <t>Baseline Element</t>
-  </si>
-  <si>
-    <t>Study Start</t>
-  </si>
-  <si>
-    <t>Screened</t>
-  </si>
-  <si>
     <t>Treated</t>
   </si>
   <si>
     <t>Leave Study</t>
   </si>
   <si>
-    <t>EL3,EL5</t>
-  </si>
-  <si>
-    <t>EL5, EL3</t>
-  </si>
-  <si>
-    <t>Treatment 1</t>
-  </si>
-  <si>
-    <t>Treatment 2</t>
-  </si>
-  <si>
     <t>Treatment Element 1</t>
   </si>
   <si>
-    <t>Treatment Element 2</t>
-  </si>
-  <si>
     <t>Completed treatment 1</t>
-  </si>
-  <si>
-    <t>Completed treatment 2</t>
   </si>
   <si>
     <t>The main design for the study</t>
@@ -1357,10 +1291,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1371,10 +1305,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1385,10 +1319,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1399,10 +1333,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1413,10 +1347,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1427,10 +1361,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1441,10 +1375,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1465,42 +1399,42 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="G9" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="H9" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1510,33 +1444,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G11" s="15">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1644,90 +1578,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="G1" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
         <v>169</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" t="s">
         <v>170</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1756,65 +1690,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" t="s">
         <v>192</v>
-      </c>
-      <c r="B3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1829,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1847,137 +1781,91 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>200</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1988,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2004,104 +1892,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2125,18 +1962,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2163,62 +2000,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="F3" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2231,7 +2068,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2243,10 +2080,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -2254,10 +2091,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -2265,10 +2102,10 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -2276,10 +2113,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -2287,10 +2124,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -2298,10 +2135,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -2309,10 +2146,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -2320,10 +2157,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -2331,10 +2168,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2342,7 +2179,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -2351,53 +2188,35 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2448,53 +2267,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2522,35 +2341,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2562,11 +2381,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2580,189 +2399,189 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="28"/>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="17" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>8</v>
-      </c>
       <c r="C9" s="24" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2790,72 +2609,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
         <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2882,72 +2701,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2974,205 +2793,205 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
